--- a/softwares/gateway/results-sat-18/TCP/harmless_TCP.xlsx
+++ b/softwares/gateway/results-sat-18/TCP/harmless_TCP.xlsx
@@ -424,992 +424,992 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2.51538</t>
+          <t>430.642</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2.5754</t>
+          <t>508.806</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>2.57693</t>
+          <t>494.297</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>3.8721</t>
+          <t>548.697</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>3.87058</t>
+          <t>530.504</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>3.87093</t>
+          <t>774.818</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>19.1339</t>
+          <t>3024.57</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>19.1412</t>
+          <t>2821.87</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>19.1412</t>
+          <t>3168.32</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>57.2439</t>
+          <t>8614.5</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>57.2166</t>
+          <t>6597.03</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>57.2002</t>
+          <t>8553.1</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4837.26</t>
+          <t>828157</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4952.7</t>
+          <t>978474</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4955.64</t>
+          <t>950570</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4840.12</t>
+          <t>685871</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4838.23</t>
+          <t>663130</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4838.67</t>
+          <t>968523</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4783.46</t>
+          <t>756144</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4785.29</t>
+          <t>705467</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4785.31</t>
+          <t>792079</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>4770.32</t>
+          <t>717875</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>4768.05</t>
+          <t>549753</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>4766.68</t>
+          <t>712758</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>41.3457</t>
+          <t>2.415e-06</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>40.382</t>
+          <t>2.044e-06</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>40.3581</t>
+          <t>2.104e-06</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.3213</t>
+          <t>2.916e-06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>41.3374</t>
+          <t>3.016e-06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>41.3337</t>
+          <t>2.065e-06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>41.8107</t>
+          <t>2.645e-06</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>41.7948</t>
+          <t>2.835e-06</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>41.7946</t>
+          <t>2.525e-06</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>41.9259</t>
+          <t>2.786e-06</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>41.9459</t>
+          <t>3.638e-06</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>41.9579</t>
+          <t>2.806e-06</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4.80094</t>
+          <t>496.657</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.79998</t>
+          <t>308.88</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.79471</t>
+          <t>508.806</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.721</t>
+          <t>760.456</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.7284</t>
+          <t>767.754</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.72249</t>
+          <t>657.354</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>36.5047</t>
+          <t>3246.75</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>36.4976</t>
+          <t>2411.82</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>36.4778</t>
+          <t>2534.85</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>109.058</t>
+          <t>9213.05</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>109.018</t>
+          <t>11799.4</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>109.156</t>
+          <t>10191.1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9232.58</t>
+          <t>955110</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9230.73</t>
+          <t>594001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9220.6</t>
+          <t>978474</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9651.25</t>
+          <t>950570</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9660.5</t>
+          <t>959693</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9653.11</t>
+          <t>821693</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9126.19</t>
+          <t>811688</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>9124.4</t>
+          <t>602954</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>9119.44</t>
+          <t>633714</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>9088.17</t>
+          <t>767754</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>9084.8</t>
+          <t>983284</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>9096.37</t>
+          <t>849257</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21.6624</t>
+          <t>2.094e-06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21.6668</t>
+          <t>3.367e-06</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21.6906</t>
+          <t>2.044e-06</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>20.7227</t>
+          <t>2.104e-06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20.7029</t>
+          <t>2.084e-06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>20.7187</t>
+          <t>2.434e-06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21.915</t>
+          <t>2.464e-06</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21.9192</t>
+          <t>3.317e-06</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21.9312</t>
+          <t>3.156e-06</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>22.0066</t>
+          <t>2.605e-06</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>22.0148</t>
+          <t>2.034e-06</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21.9868</t>
+          <t>2.355e-06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8.77554</t>
+          <t>436.059</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8.7845</t>
+          <t>434.238</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8.76955</t>
+          <t>342.556</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.5053</t>
+          <t>735.971</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>14.6963</t>
+          <t>497.512</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>14.6915</t>
+          <t>576.577</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>66.7811</t>
+          <t>3047.62</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>66.1972</t>
+          <t>3565.06</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>65.6468</t>
+          <t>3326.4</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>179.098</t>
+          <t>14345.5</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>176.321</t>
+          <t>10786.5</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>176.684</t>
+          <t>7128.01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>16876</t>
+          <t>838574</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16893.3</t>
+          <t>835073</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16864.5</t>
+          <t>658762</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16881.7</t>
+          <t>919963</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>18370.4</t>
+          <t>621891</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>18364.4</t>
+          <t>720721</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>16695.3</t>
+          <t>761905</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>16549.3</t>
+          <t>891266</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>16411.7</t>
+          <t>831601</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>14924.8</t>
+          <t>1.19546e+06</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>14693.4</t>
+          <t>898876</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>14723.7</t>
+          <t>594001</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11.8511</t>
+          <t>2.385e-06</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11.839</t>
+          <t>2.395e-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11.8592</t>
+          <t>3.036e-06</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11.8472</t>
+          <t>2.174e-06</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.8871</t>
+          <t>3.216e-06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10.8906</t>
+          <t>2.775e-06</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>11.9794</t>
+          <t>2.625e-06</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>11.9752</t>
+          <t>2.244e-06</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>11.9955</t>
+          <t>2.405e-06</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>12.0139</t>
+          <t>1.673e-06</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>12.013</t>
+          <t>2.225e-06</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>12.0336</t>
+          <t>3.367e-06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>198182</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>196867</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>179306</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>176512</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>177179</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10.1683</t>
+          <t>482.599</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10.1723</t>
+          <t>596.672</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10.192</t>
+          <t>262.097</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>17.0184</t>
+          <t>654.397</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15.7176</t>
+          <t>458.979</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>16.6918</t>
+          <t>649.087</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>70.5201</t>
+          <t>3472.22</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>74.4709</t>
+          <t>2653.4</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>77.2631</t>
+          <t>2287.68</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>171.411</t>
+          <t>9942</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>186.137</t>
+          <t>11799.4</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>160.393</t>
+          <t>9979.21</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>19554.5</t>
+          <t>928074</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>19562.1</t>
+          <t>1.14745e+06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19600.1</t>
+          <t>504032</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>21273</t>
+          <t>817996</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>19647</t>
+          <t>573723</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>20864.8</t>
+          <t>811359</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>17630</t>
+          <t>868056</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>18617.7</t>
+          <t>663350</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>19315.8</t>
+          <t>571919</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>14284.3</t>
+          <t>828500</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>15511.4</t>
+          <t>983284</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>13366.1</t>
+          <t>831601</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10.2278</t>
+          <t>2.155e-06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10.2239</t>
+          <t>1.743e-06</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10.204</t>
+          <t>3.968e-06</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9.40157</t>
+          <t>2.445e-06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10.1797</t>
+          <t>3.486e-06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9.58552</t>
+          <t>2.465e-06</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10.3282</t>
+          <t>2.304e-06</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10.2944</t>
+          <t>3.015e-06</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10.3307</t>
+          <t>3.497e-06</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10.3352</t>
+          <t>2.414e-06</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>9.39928</t>
+          <t>2.034e-06</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>10.3332</t>
+          <t>2.405e-06</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>182087</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>191658</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>199545</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>147631</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>145796</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>138115</t>
+          <t>2</t>
         </is>
       </c>
     </row>
